--- a/Jogos_do_Dia/2022-12-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -656,7 +656,7 @@
         <v>1.65</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -695,28 +695,28 @@
         <v>3.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG2" t="n">
         <v>1.93</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="3">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1203,7 +1203,7 @@
         <v>2.76</v>
       </c>
       <c r="M7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N7" t="n">
         <v>1.6</v>
@@ -1292,14 +1292,14 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.2</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.9</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="N8" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2022-12-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.53</v>
+        <v>2.46</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -656,7 +656,7 @@
         <v>1.65</v>
       </c>
       <c r="N2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V3" t="n">
         <v>0.77</v>
@@ -805,28 +805,28 @@
         <v>2.21</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
         <v>1.67</v>
@@ -915,28 +915,28 @@
         <v>2.81</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V5" t="n">
         <v>2.14</v>
@@ -1025,224 +1025,224 @@
         <v>4.46</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44904.35416666666</v>
+        <v>44904.58333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Sepsi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Voluntari</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="X6" t="n">
-        <v>1.11</v>
+        <v>1.92</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.5</v>
+        <v>3.21</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Belgium First Division B</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44904.58333333334</v>
+        <v>44904.66666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>Waasland-Beveren</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Voluntari</t>
+          <t>RSC Anderlecht II</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="N7" t="n">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>2.13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.21</v>
+        <v>3.03</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1283,22 +1283,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Waasland-Beveren</t>
+          <t>KRC Genk II</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RSC Anderlecht II</t>
+          <t>Club Brugge II</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1340,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.13</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>1.83</v>
+        <v>1.32</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.03</v>
+        <v>2.44</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1382,220 +1382,110 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Belgium First Division B</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44904.66666666666</v>
+        <v>44904.69791666666</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>KRC Genk II</t>
+          <t>Crawley Town</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Club Brugge II</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.36</v>
+        <v>1.99</v>
       </c>
       <c r="N9" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X9" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.44</v>
+        <v>2.21</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>England EFL League Two</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>44904.69791666666</v>
-      </c>
-      <c r="C10" t="n">
-        <v>21</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Crawley Town</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Hartlepool United</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AH10" t="n">
         <v>4</v>
       </c>
     </row>
